--- a/OnlineVotingAndroid/Upload/Sample Data.xlsx
+++ b/OnlineVotingAndroid/Upload/Sample Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6296D846-77A0-4667-AF8F-CAEF5FC75B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD94C24-2ABD-41A7-8475-DAF1CCC6F4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5B202482-FB2C-4097-94E2-8D6B9A66E23E}"/>
   </bookViews>
@@ -44,51 +44,9 @@
     <t>Year and section</t>
   </si>
   <si>
-    <t>Larry</t>
-  </si>
-  <si>
-    <t>Onga</t>
-  </si>
-  <si>
     <t>1st Year - A</t>
   </si>
   <si>
-    <t>Prince</t>
-  </si>
-  <si>
-    <t>Abot</t>
-  </si>
-  <si>
-    <t>Jira</t>
-  </si>
-  <si>
-    <t>Sajot</t>
-  </si>
-  <si>
-    <t>Jin</t>
-  </si>
-  <si>
-    <t>Lapid</t>
-  </si>
-  <si>
-    <t>Rak</t>
-  </si>
-  <si>
-    <t>Strix</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Stiff</t>
-  </si>
-  <si>
-    <t>Bernabe</t>
-  </si>
-  <si>
-    <t>Layola</t>
-  </si>
-  <si>
     <t>2nd Year - A</t>
   </si>
   <si>
@@ -104,25 +62,67 @@
     <t>Student ID</t>
   </si>
   <si>
-    <t>22-AAA</t>
-  </si>
-  <si>
-    <t>22-BBB</t>
-  </si>
-  <si>
-    <t>22-CCC</t>
-  </si>
-  <si>
-    <t>22-DDD</t>
-  </si>
-  <si>
-    <t>22-EEE</t>
-  </si>
-  <si>
-    <t>22-FFF</t>
-  </si>
-  <si>
-    <t>22-GGG</t>
+    <t>2012-22AA</t>
+  </si>
+  <si>
+    <t>2012-11BB</t>
+  </si>
+  <si>
+    <t>2012-4422A</t>
+  </si>
+  <si>
+    <t>2012-211ZA</t>
+  </si>
+  <si>
+    <t>2012-5521A</t>
+  </si>
+  <si>
+    <t>2012-152YY</t>
+  </si>
+  <si>
+    <t>2012-512AVC</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Elon</t>
+  </si>
+  <si>
+    <t>Musk</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>Marx</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Arnold</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>McDo</t>
+  </si>
+  <si>
+    <t>Bars</t>
+  </si>
+  <si>
+    <t>Tan</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +490,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -504,100 +504,100 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
